--- a/Playlist_Data.xlsx
+++ b/Playlist_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Python\Classical_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2018BFD8-7593-453C-96F4-9B6D36C3FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492FB55-54DD-493D-8D0A-641726B2CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5E94F5-E481-42C4-BCD4-D695038E1C7F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="212">
   <si>
     <t>Each playlist is based on a single artist, with the following total durations: yellow is baroque &amp; classical era (1600-1820) green is Romantic (1820) to early 20th century.</t>
   </si>
@@ -68,39 +68,18 @@
     <t>Beethoven</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2302 seconds (38 min 22 sec)</t>
-  </si>
-  <si>
     <t>Chopin</t>
   </si>
   <si>
-    <t xml:space="preserve"> 719 seconds (11 min 59 sec)</t>
-  </si>
-  <si>
     <t>Josef Suk</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1575 seconds (26 min 15 sec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2223 seconds (37 min 3 sec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 711 seconds (11 min 51 sec)</t>
-  </si>
-  <si>
     <t>Strauss</t>
   </si>
   <si>
-    <t xml:space="preserve"> 567 seconds (9 min 27 sec)</t>
-  </si>
-  <si>
     <t>Tchaikovsky</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1398 seconds (23 min 18 sec)</t>
-  </si>
-  <si>
     <t>Playlist</t>
   </si>
   <si>
@@ -110,33 +89,21 @@
     <t>Artist</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Tracks</t>
   </si>
   <si>
     <t>Baroque/Classical Era</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2571 seconds (42 min 51 sec)</t>
-  </si>
-  <si>
     <t>Video Name</t>
   </si>
   <si>
     <t>Early Romantic Era</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3237 seconds (53 min 57 sec)</t>
-  </si>
-  <si>
     <t>Romantic Era</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2901 seconds (48 min 21 sec)</t>
-  </si>
-  <si>
     <t>Artist Playlists</t>
   </si>
   <si>
@@ -146,78 +113,39 @@
     <t>Mixed Romantic/Classical</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6840 seconds (1 hr 54 min)</t>
-  </si>
-  <si>
-    <t>Satie, Strauss, Tchaikovsky, Beethoven, Chopin, Suk, Medelssohn</t>
-  </si>
-  <si>
-    <t>7055 seconds (1 hr 57 min)</t>
-  </si>
-  <si>
     <t>Mozart, Rossini, Bach</t>
   </si>
   <si>
-    <t>3252 seconds (54 min 12 sec)</t>
-  </si>
-  <si>
     <t>Dark</t>
   </si>
   <si>
-    <t>916 seconds (15 min 16 sec)</t>
-  </si>
-  <si>
     <t>Dramatic</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7139 seconds (1 hr 58 min 59 sec)</t>
-  </si>
-  <si>
     <t>Sad</t>
   </si>
   <si>
-    <t xml:space="preserve"> 870 seconds (14 min 30 sec)</t>
-  </si>
-  <si>
     <t>Bright</t>
   </si>
   <si>
-    <t xml:space="preserve"> 716 seconds (11 min 56 sec)</t>
-  </si>
-  <si>
     <t>Dark + Dramatic</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8055 seconds (2 hr 14 min 15 sec)</t>
-  </si>
-  <si>
     <t>Sad + Calm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1062 seconds (17 min 42 sec)</t>
-  </si>
-  <si>
     <t>Mood Playlists</t>
   </si>
   <si>
     <t>Happy + Bright</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1200 seconds (20 min)</t>
-  </si>
-  <si>
     <t>Bright + Dramatic</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7855 seconds (2 hr 10 min 55 sec)</t>
-  </si>
-  <si>
     <t>Sad + Dramatic</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8009 seconds (2 hr 13 min 29 sec)</t>
-  </si>
-  <si>
     <t>Gentle Melodies for Little Ears</t>
   </si>
   <si>
@@ -687,6 +615,54 @@
   </si>
   <si>
     <t>Symphony No. 5, 1812 Overture, William Tell Overture, Eine Kleine Nachtmusik</t>
+  </si>
+  <si>
+    <t>Toccata in D minor, Moonlight Sonata, Symphony No. 5</t>
+  </si>
+  <si>
+    <t>9th Symphony, Symphony No. 38, William Tell Overture, Blue Danube, 1812 Overture</t>
+  </si>
+  <si>
+    <t>Toccata in D minor, Moonlight Sonata, Symphony No. 5, 9th Symphony, Symphony No. 38, William Tell Overture, Blue Danube, 1812 Overture</t>
+  </si>
+  <si>
+    <t>Fur Elise, E Minor Prelude, Funeral March</t>
+  </si>
+  <si>
+    <t>Midsummer Night’s Dream, Waltz of the Flowers</t>
+  </si>
+  <si>
+    <t>Gymnopedie no1, Fur Elise, E Minor Prelude, Funeral March</t>
+  </si>
+  <si>
+    <t>Midsummer Night’s Dream, Waltz of the Flowers, 9th Symphony, Symphony No. 38, William Tell Overture, Blue Danube, 1812 Overture</t>
+  </si>
+  <si>
+    <t>C Major Prelude, Eine Kleine Nachtmusik, Midsummer Night’s Dream, Waltz of the Flowers</t>
+  </si>
+  <si>
+    <t>Gymnopedie no1, 9th Symphony, Symphony No. 38, William Tell Overture, Blue Danube, 1812 Overture</t>
+  </si>
+  <si>
+    <t>Fur Elise, Moonlight Sonata, Symphony No. 5, 9th Symphony, E Minor Prelude, Funeral March, Midsummer Night's Dream</t>
+  </si>
+  <si>
+    <t>1812 Overture, Waltz of the Flowers, Blue Danube, Serenade Op.6</t>
+  </si>
+  <si>
+    <t>Fur Elise, Moonlight Sonata, Symphony No. 5, 9th Symphony, Eine Kleine Nachtmusik, Symphony No.38 in D major, 1812 Overture, Waltz of the Flowers</t>
+  </si>
+  <si>
+    <t>Satie, Strauss, Tchaikovsky, Beethoven, Chopin, Medelssohn</t>
+  </si>
+  <si>
+    <t>Fur Elise, Moonlight Sonata, Symphony No. 5, 9th Symphony, E Minor Prelude, Funeral March, Blue Danube, Gymnopedie no1, 1812 Overture, Waltz of the Flowers, Midsummer Night's Dream</t>
+  </si>
+  <si>
+    <t>Eine Kleine Nachtmusik, Symphony No.38 in D major, William Tell Overture, C Major Prelude, Toccata in D minor</t>
+  </si>
+  <si>
+    <t>Gentle Melodies for Little Ears 2</t>
   </si>
 </sst>
 </file>
@@ -1104,45 +1080,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A680C863-34A9-4DA0-AA1B-71F747559F39}">
-  <dimension ref="B1:G47"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1154,55 +1126,46 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1214,15 +1177,12 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1234,216 +1194,204 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1452,15 +1400,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1469,15 +1417,15 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1486,15 +1434,15 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1503,15 +1451,15 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1520,412 +1468,412 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>154</v>
-      </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1887,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,21 +1899,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -1973,10 +1921,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>564</v>
@@ -1984,10 +1932,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>192</v>
@@ -1995,10 +1943,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>1575</v>
@@ -2006,10 +1954,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>133</v>
@@ -2017,10 +1965,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>185</v>
@@ -2028,10 +1976,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>984</v>
@@ -2039,10 +1987,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>414</v>
@@ -2053,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>711</v>
@@ -2061,10 +2009,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>567</v>
@@ -2075,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>1420</v>
@@ -2086,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>151</v>
@@ -2097,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>315</v>
@@ -2108,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>416</v>
@@ -2119,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>351</v>
@@ -2130,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>1872</v>
@@ -2138,10 +2086,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>302</v>
@@ -2157,7 +2105,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="F2:G18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,142 +2114,143 @@
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Table2[[#All],[Songs]],C2)</f>
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <f>SUM(D7,D35)</f>
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Table2[[#All],[Songs]],C3)</f>
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <f>SUM(D9,D37)</f>
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Table2[[#All],[Songs]],C4)</f>
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <f>SUM(D11:D12,D39)</f>
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Table2[[#All],[Songs]],C5)</f>
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <f>SUM(D23,D41)</f>
         <v>4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D6">
         <f>COUNTIF(Table2[[#All],[Songs]],C6)</f>
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <f>SUM(D6,D34)</f>
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <f>COUNTIF(Table2[[#All],[Songs]],C7)</f>
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G7">
         <f>SUM(D28,D44)</f>
@@ -2310,17 +2259,17 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <f>COUNTIF(Table2[[#All],[Songs]],C8)</f>
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <f>SUM(D2,D32)</f>
@@ -2329,17 +2278,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Table2[[#All],[Songs]],C9)</f>
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <f>SUM(D29,D45)</f>
@@ -2348,17 +2297,17 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Table2[[#All],[Songs]],C10)</f>
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <f>SUM(D30,D47)</f>
@@ -2367,17 +2316,17 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <f>COUNTIF(Table2[[#All],[Songs]],C11)</f>
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <f>SUM(D4:D5,D33)</f>
@@ -2386,17 +2335,17 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <f>COUNTIF(Table2[[#All],[Songs]],C12)</f>
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G12">
         <f>SUM(D3)</f>
@@ -2405,17 +2354,17 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C13)</f>
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <f>SUM(D10,D38)</f>
@@ -2424,17 +2373,17 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D14">
         <f>COUNTIF(Table2[[#All],[Songs]],C14)</f>
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G14">
         <f>SUM(D16)</f>
@@ -2443,17 +2392,17 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <f>COUNTIF(Table2[[#All],[Songs]],C15)</f>
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <f>SUM(D26,D42)</f>
@@ -2462,17 +2411,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D16">
         <f>COUNTIF(Table2[[#All],[Songs]],C16)</f>
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G16">
         <f>SUM(D8,D36)</f>
@@ -2481,17 +2430,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D17" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C17)</f>
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G17">
         <f>SUM(D27,D43)</f>
@@ -2500,17 +2449,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D18" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C18)</f>
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G18">
         <f>SUM(D40,D14:D15)</f>
@@ -2519,10 +2468,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D19" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C19)</f>
@@ -2531,10 +2480,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D20" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C20)</f>
@@ -2543,10 +2492,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C21)</f>
@@ -2555,10 +2504,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D22" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C22)</f>
@@ -2567,10 +2516,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D23">
         <f>COUNTIF(Table2[[#All],[Songs]],C23)</f>
@@ -2579,10 +2528,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D24" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C24)</f>
@@ -2591,10 +2540,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D25" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C25)</f>
@@ -2603,10 +2552,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <f>COUNTIF(Table2[[#All],[Songs]],C26)</f>
@@ -2615,10 +2564,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D27">
         <f>COUNTIF(Table2[[#All],[Songs]],C27)</f>
@@ -2627,10 +2576,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D28">
         <f>COUNTIF(Table2[[#All],[Songs]],C28)</f>
@@ -2639,10 +2588,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <f>COUNTIF(Table2[[#All],[Songs]],C29)</f>
@@ -2651,10 +2600,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <f>COUNTIF(Table2[[#All],[Songs]],C30)</f>
@@ -2663,10 +2612,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D31" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C31)</f>
@@ -2675,10 +2624,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <f>COUNTIF(Table2[[#All],[Songs]],C32)</f>
@@ -2687,10 +2636,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <f>COUNTIF(Table2[[#All],[Songs]],C33)</f>
@@ -2699,10 +2648,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <f>COUNTIF(Table2[[#All],[Songs]],C34)</f>
@@ -2711,10 +2660,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <f>COUNTIF(Table2[[#All],[Songs]],C35)</f>
@@ -2723,10 +2672,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <f>COUNTIF(Table2[[#All],[Songs]],C36)</f>
@@ -2735,10 +2684,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D37">
         <f>COUNTIF(Table2[[#All],[Songs]],C37)</f>
@@ -2747,10 +2696,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <f>COUNTIF(Table2[[#All],[Songs]],C38)</f>
@@ -2759,10 +2708,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <f>COUNTIF(Table2[[#All],[Songs]],C39)</f>
@@ -2771,10 +2720,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <f>COUNTIF(Table2[[#All],[Songs]],C40)</f>
@@ -2783,10 +2732,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <f>COUNTIF(Table2[[#All],[Songs]],C41)</f>
@@ -2795,10 +2744,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <f>COUNTIF(Table2[[#All],[Songs]],C42)</f>
@@ -2807,10 +2756,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D43">
         <f>COUNTIF(Table2[[#All],[Songs]],C43)</f>
@@ -2819,10 +2768,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D44">
         <f>COUNTIF(Table2[[#All],[Songs]],C44)</f>
@@ -2831,10 +2780,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <f>COUNTIF(Table2[[#All],[Songs]],C45)</f>
@@ -2843,10 +2792,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D46" s="3">
         <f>COUNTIF(Table2[[#All],[Songs]],C46)</f>
@@ -2855,10 +2804,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <f>COUNTIF(Table2[[#All],[Songs]],C47)</f>
@@ -2867,382 +2816,382 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
